--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Adam9-Itga3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Adam9-Itga3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.7306960927433</v>
+        <v>11.83171066666667</v>
       </c>
       <c r="H2">
-        <v>11.7306960927433</v>
+        <v>35.495132</v>
       </c>
       <c r="I2">
-        <v>0.08182647444388196</v>
+        <v>0.0821640352811125</v>
       </c>
       <c r="J2">
-        <v>0.08182647444388196</v>
+        <v>0.08216403528111249</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.1686942107306</v>
+        <v>15.66014366666667</v>
       </c>
       <c r="N2">
-        <v>15.1686942107306</v>
+        <v>46.980431</v>
       </c>
       <c r="O2">
-        <v>0.753243867366462</v>
+        <v>0.735156956526318</v>
       </c>
       <c r="P2">
-        <v>0.753243867366462</v>
+        <v>0.7351569565263179</v>
       </c>
       <c r="Q2">
-        <v>177.9393419098353</v>
+        <v>185.2862888624325</v>
       </c>
       <c r="R2">
-        <v>177.9393419098353</v>
+        <v>1667.576599761892</v>
       </c>
       <c r="S2">
-        <v>0.06163529006307261</v>
+        <v>0.06040346211318368</v>
       </c>
       <c r="T2">
-        <v>0.06163529006307261</v>
+        <v>0.06040346211318366</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.7306960927433</v>
+        <v>11.83171066666667</v>
       </c>
       <c r="H3">
-        <v>11.7306960927433</v>
+        <v>35.495132</v>
       </c>
       <c r="I3">
-        <v>0.08182647444388196</v>
+        <v>0.0821640352811125</v>
       </c>
       <c r="J3">
-        <v>0.08182647444388196</v>
+        <v>0.08216403528111249</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.945362273403315</v>
+        <v>0.9918089999999999</v>
       </c>
       <c r="N3">
-        <v>0.945362273403315</v>
+        <v>2.975427</v>
       </c>
       <c r="O3">
-        <v>0.04694460347001523</v>
+        <v>0.04655993593771484</v>
       </c>
       <c r="P3">
-        <v>0.04694460347001523</v>
+        <v>0.04655993593771483</v>
       </c>
       <c r="Q3">
-        <v>11.08975752683919</v>
+        <v>11.734797124596</v>
       </c>
       <c r="R3">
-        <v>11.08975752683919</v>
+        <v>105.613174121364</v>
       </c>
       <c r="S3">
-        <v>0.003841311396117373</v>
+        <v>0.00382555221907274</v>
       </c>
       <c r="T3">
-        <v>0.003841311396117373</v>
+        <v>0.003825552219072739</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.7306960927433</v>
+        <v>11.83171066666667</v>
       </c>
       <c r="H4">
-        <v>11.7306960927433</v>
+        <v>35.495132</v>
       </c>
       <c r="I4">
-        <v>0.08182647444388196</v>
+        <v>0.0821640352811125</v>
       </c>
       <c r="J4">
-        <v>0.08182647444388196</v>
+        <v>0.08216403528111249</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>4.02376987980892</v>
+        <v>0.08833166666666666</v>
       </c>
       <c r="N4">
-        <v>4.02376987980892</v>
+        <v>0.264995</v>
       </c>
       <c r="O4">
-        <v>0.1998115291635227</v>
+        <v>0.004146682215297079</v>
       </c>
       <c r="P4">
-        <v>0.1998115291635227</v>
+        <v>0.004146682215297079</v>
       </c>
       <c r="Q4">
-        <v>47.20162160717267</v>
+        <v>1.045114722704444</v>
       </c>
       <c r="R4">
-        <v>47.20162160717267</v>
+        <v>9.406032504339999</v>
       </c>
       <c r="S4">
-        <v>0.01634987298469196</v>
+        <v>0.000340708143837231</v>
       </c>
       <c r="T4">
-        <v>0.01634987298469196</v>
+        <v>0.0003407081438372309</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>42.7357364451605</v>
+        <v>11.83171066666667</v>
       </c>
       <c r="H5">
-        <v>42.7357364451605</v>
+        <v>35.495132</v>
       </c>
       <c r="I5">
-        <v>0.2980995005261128</v>
+        <v>0.0821640352811125</v>
       </c>
       <c r="J5">
-        <v>0.2980995005261128</v>
+        <v>0.08216403528111249</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>15.1686942107306</v>
+        <v>0.008727</v>
       </c>
       <c r="N5">
-        <v>15.1686942107306</v>
+        <v>0.026181</v>
       </c>
       <c r="O5">
-        <v>0.753243867366462</v>
+        <v>0.0004096842849061034</v>
       </c>
       <c r="P5">
-        <v>0.753243867366462</v>
+        <v>0.0004096842849061033</v>
       </c>
       <c r="Q5">
-        <v>648.2453180070147</v>
+        <v>0.103255338988</v>
       </c>
       <c r="R5">
-        <v>648.2453180070147</v>
+        <v>0.9292980508919999</v>
       </c>
       <c r="S5">
-        <v>0.2245416206362999</v>
+        <v>3.366131403914242E-05</v>
       </c>
       <c r="T5">
-        <v>0.2245416206362999</v>
+        <v>3.366131403914241E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>42.7357364451605</v>
+        <v>11.83171066666667</v>
       </c>
       <c r="H6">
-        <v>42.7357364451605</v>
+        <v>35.495132</v>
       </c>
       <c r="I6">
-        <v>0.2980995005261128</v>
+        <v>0.0821640352811125</v>
       </c>
       <c r="J6">
-        <v>0.2980995005261128</v>
+        <v>0.08216403528111249</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.945362273403315</v>
+        <v>4.552757666666667</v>
       </c>
       <c r="N6">
-        <v>0.945362273403315</v>
+        <v>13.658273</v>
       </c>
       <c r="O6">
-        <v>0.04694460347001523</v>
+        <v>0.2137267410357641</v>
       </c>
       <c r="P6">
-        <v>0.04694460347001523</v>
+        <v>0.2137267410357641</v>
       </c>
       <c r="Q6">
-        <v>40.40075296136183</v>
+        <v>53.86691144744845</v>
       </c>
       <c r="R6">
-        <v>40.40075296136183</v>
+        <v>484.802203027036</v>
       </c>
       <c r="S6">
-        <v>0.01399416284680796</v>
+        <v>0.01756065149097972</v>
       </c>
       <c r="T6">
-        <v>0.01399416284680796</v>
+        <v>0.01756065149097971</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>42.7357364451605</v>
+        <v>42.86866899999999</v>
       </c>
       <c r="H7">
-        <v>42.7357364451605</v>
+        <v>128.606007</v>
       </c>
       <c r="I7">
-        <v>0.2980995005261128</v>
+        <v>0.2976968361890019</v>
       </c>
       <c r="J7">
-        <v>0.2980995005261128</v>
+        <v>0.2976968361890019</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.02376987980892</v>
+        <v>15.66014366666667</v>
       </c>
       <c r="N7">
-        <v>4.02376987980892</v>
+        <v>46.980431</v>
       </c>
       <c r="O7">
-        <v>0.1998115291635227</v>
+        <v>0.735156956526318</v>
       </c>
       <c r="P7">
-        <v>0.1998115291635227</v>
+        <v>0.7351569565263179</v>
       </c>
       <c r="Q7">
-        <v>171.9587690994891</v>
+        <v>671.3295153387796</v>
       </c>
       <c r="R7">
-        <v>171.9587690994891</v>
+        <v>6041.965638049016</v>
       </c>
       <c r="S7">
-        <v>0.05956371704300493</v>
+        <v>0.2188539000602205</v>
       </c>
       <c r="T7">
-        <v>0.05956371704300493</v>
+        <v>0.2188539000602204</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,122 +903,122 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>42.0030333396831</v>
+        <v>42.86866899999999</v>
       </c>
       <c r="H8">
-        <v>42.0030333396831</v>
+        <v>128.606007</v>
       </c>
       <c r="I8">
-        <v>0.2929885922337747</v>
+        <v>0.2976968361890019</v>
       </c>
       <c r="J8">
-        <v>0.2929885922337747</v>
+        <v>0.2976968361890019</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>15.1686942107306</v>
+        <v>0.9918089999999999</v>
       </c>
       <c r="N8">
-        <v>15.1686942107306</v>
+        <v>2.975427</v>
       </c>
       <c r="O8">
-        <v>0.753243867366462</v>
+        <v>0.04655993593771484</v>
       </c>
       <c r="P8">
-        <v>0.753243867366462</v>
+        <v>0.04655993593771483</v>
       </c>
       <c r="Q8">
-        <v>637.1311686527754</v>
+        <v>42.51753173222099</v>
       </c>
       <c r="R8">
-        <v>637.1311686527754</v>
+        <v>382.6577855899889</v>
       </c>
       <c r="S8">
-        <v>0.2206918603084238</v>
+        <v>0.01386074562182032</v>
       </c>
       <c r="T8">
-        <v>0.2206918603084238</v>
+        <v>0.01386074562182031</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>42.0030333396831</v>
+        <v>42.86866899999999</v>
       </c>
       <c r="H9">
-        <v>42.0030333396831</v>
+        <v>128.606007</v>
       </c>
       <c r="I9">
-        <v>0.2929885922337747</v>
+        <v>0.2976968361890019</v>
       </c>
       <c r="J9">
-        <v>0.2929885922337747</v>
+        <v>0.2976968361890019</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.945362273403315</v>
+        <v>0.08833166666666666</v>
       </c>
       <c r="N9">
-        <v>0.945362273403315</v>
+        <v>0.264995</v>
       </c>
       <c r="O9">
-        <v>0.04694460347001523</v>
+        <v>0.004146682215297079</v>
       </c>
       <c r="P9">
-        <v>0.04694460347001523</v>
+        <v>0.004146682215297079</v>
       </c>
       <c r="Q9">
-        <v>39.70808308783805</v>
+        <v>3.786660980551665</v>
       </c>
       <c r="R9">
-        <v>39.70808308783805</v>
+        <v>34.07994882496499</v>
       </c>
       <c r="S9">
-        <v>0.01375423328365254</v>
+        <v>0.001234454176175142</v>
       </c>
       <c r="T9">
-        <v>0.01375423328365254</v>
+        <v>0.001234454176175142</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>42.0030333396831</v>
+        <v>42.86866899999999</v>
       </c>
       <c r="H10">
-        <v>42.0030333396831</v>
+        <v>128.606007</v>
       </c>
       <c r="I10">
-        <v>0.2929885922337747</v>
+        <v>0.2976968361890019</v>
       </c>
       <c r="J10">
-        <v>0.2929885922337747</v>
+        <v>0.2976968361890019</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>4.02376987980892</v>
+        <v>0.008727</v>
       </c>
       <c r="N10">
-        <v>4.02376987980892</v>
+        <v>0.026181</v>
       </c>
       <c r="O10">
-        <v>0.1998115291635227</v>
+        <v>0.0004096842849061034</v>
       </c>
       <c r="P10">
-        <v>0.1998115291635227</v>
+        <v>0.0004096842849061033</v>
       </c>
       <c r="Q10">
-        <v>169.0105404128267</v>
+        <v>0.3741148743629999</v>
       </c>
       <c r="R10">
-        <v>169.0105404128267</v>
+        <v>3.367033869266999</v>
       </c>
       <c r="S10">
-        <v>0.05854249864169833</v>
+        <v>0.0001219617154529006</v>
       </c>
       <c r="T10">
-        <v>0.05854249864169833</v>
+        <v>0.0001219617154529006</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>40.1287471766905</v>
+        <v>42.86866899999999</v>
       </c>
       <c r="H11">
-        <v>40.1287471766905</v>
+        <v>128.606007</v>
       </c>
       <c r="I11">
-        <v>0.2799146682650591</v>
+        <v>0.2976968361890019</v>
       </c>
       <c r="J11">
-        <v>0.2799146682650591</v>
+        <v>0.2976968361890019</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.1686942107306</v>
+        <v>4.552757666666667</v>
       </c>
       <c r="N11">
-        <v>15.1686942107306</v>
+        <v>13.658273</v>
       </c>
       <c r="O11">
-        <v>0.753243867366462</v>
+        <v>0.2137267410357641</v>
       </c>
       <c r="P11">
-        <v>0.753243867366462</v>
+        <v>0.2137267410357641</v>
       </c>
       <c r="Q11">
-        <v>608.7006949829371</v>
+        <v>195.1706614495457</v>
       </c>
       <c r="R11">
-        <v>608.7006949829371</v>
+        <v>1756.535953045911</v>
       </c>
       <c r="S11">
-        <v>0.2108440072565734</v>
+        <v>0.06362577461533309</v>
       </c>
       <c r="T11">
-        <v>0.2108440072565734</v>
+        <v>0.06362577461533309</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>40.1287471766905</v>
+        <v>42.11645766666667</v>
       </c>
       <c r="H12">
-        <v>40.1287471766905</v>
+        <v>126.349373</v>
       </c>
       <c r="I12">
-        <v>0.2799146682650591</v>
+        <v>0.2924731859264094</v>
       </c>
       <c r="J12">
-        <v>0.2799146682650591</v>
+        <v>0.2924731859264094</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.945362273403315</v>
+        <v>15.66014366666667</v>
       </c>
       <c r="N12">
-        <v>0.945362273403315</v>
+        <v>46.980431</v>
       </c>
       <c r="O12">
-        <v>0.04694460347001523</v>
+        <v>0.735156956526318</v>
       </c>
       <c r="P12">
-        <v>0.04694460347001523</v>
+        <v>0.7351569565263179</v>
       </c>
       <c r="Q12">
-        <v>37.93620365978299</v>
+        <v>659.5497777910849</v>
       </c>
       <c r="R12">
-        <v>37.93620365978299</v>
+        <v>5935.948000119764</v>
       </c>
       <c r="S12">
-        <v>0.01314048310714406</v>
+        <v>0.2150136972312151</v>
       </c>
       <c r="T12">
-        <v>0.01314048310714406</v>
+        <v>0.215013697231215</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>40.1287471766905</v>
+        <v>42.11645766666667</v>
       </c>
       <c r="H13">
-        <v>40.1287471766905</v>
+        <v>126.349373</v>
       </c>
       <c r="I13">
-        <v>0.2799146682650591</v>
+        <v>0.2924731859264094</v>
       </c>
       <c r="J13">
-        <v>0.2799146682650591</v>
+        <v>0.2924731859264094</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.02376987980892</v>
+        <v>0.9918089999999999</v>
       </c>
       <c r="N13">
-        <v>4.02376987980892</v>
+        <v>2.975427</v>
       </c>
       <c r="O13">
-        <v>0.1998115291635227</v>
+        <v>0.04655993593771484</v>
       </c>
       <c r="P13">
-        <v>0.1998115291635227</v>
+        <v>0.04655993593771483</v>
       </c>
       <c r="Q13">
-        <v>161.4688442040345</v>
+        <v>41.771481761919</v>
       </c>
       <c r="R13">
-        <v>161.4688442040345</v>
+        <v>375.943335857271</v>
       </c>
       <c r="S13">
-        <v>0.05593017790134164</v>
+        <v>0.01361753280023298</v>
       </c>
       <c r="T13">
-        <v>0.05593017790134164</v>
+        <v>0.01361753280023298</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.76243119281671</v>
+        <v>42.11645766666667</v>
       </c>
       <c r="H14">
-        <v>6.76243119281671</v>
+        <v>126.349373</v>
       </c>
       <c r="I14">
-        <v>0.04717076453117141</v>
+        <v>0.2924731859264094</v>
       </c>
       <c r="J14">
-        <v>0.04717076453117141</v>
+        <v>0.2924731859264094</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>15.1686942107306</v>
+        <v>0.08833166666666666</v>
       </c>
       <c r="N14">
-        <v>15.1686942107306</v>
+        <v>0.264995</v>
       </c>
       <c r="O14">
-        <v>0.753243867366462</v>
+        <v>0.004146682215297079</v>
       </c>
       <c r="P14">
-        <v>0.753243867366462</v>
+        <v>0.004146682215297079</v>
       </c>
       <c r="Q14">
-        <v>102.5772508849428</v>
+        <v>3.720216899792777</v>
       </c>
       <c r="R14">
-        <v>102.5772508849428</v>
+        <v>33.481952098135</v>
       </c>
       <c r="S14">
-        <v>0.03553108910209229</v>
+        <v>0.001212793358532318</v>
       </c>
       <c r="T14">
-        <v>0.03553108910209229</v>
+        <v>0.001212793358532318</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.76243119281671</v>
+        <v>42.11645766666667</v>
       </c>
       <c r="H15">
-        <v>6.76243119281671</v>
+        <v>126.349373</v>
       </c>
       <c r="I15">
-        <v>0.04717076453117141</v>
+        <v>0.2924731859264094</v>
       </c>
       <c r="J15">
-        <v>0.04717076453117141</v>
+        <v>0.2924731859264094</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.945362273403315</v>
+        <v>0.008727</v>
       </c>
       <c r="N15">
-        <v>0.945362273403315</v>
+        <v>0.026181</v>
       </c>
       <c r="O15">
-        <v>0.04694460347001523</v>
+        <v>0.0004096842849061034</v>
       </c>
       <c r="P15">
-        <v>0.04694460347001523</v>
+        <v>0.0004096842849061033</v>
       </c>
       <c r="Q15">
-        <v>6.392947326174696</v>
+        <v>0.3675503260570001</v>
       </c>
       <c r="R15">
-        <v>6.392947326174696</v>
+        <v>3.307952934513</v>
       </c>
       <c r="S15">
-        <v>0.0022144128362933</v>
+        <v>0.0001198216680304709</v>
       </c>
       <c r="T15">
-        <v>0.0022144128362933</v>
+        <v>0.0001198216680304708</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,52 +1402,672 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.76243119281671</v>
+        <v>42.11645766666667</v>
       </c>
       <c r="H16">
-        <v>6.76243119281671</v>
+        <v>126.349373</v>
       </c>
       <c r="I16">
-        <v>0.04717076453117141</v>
+        <v>0.2924731859264094</v>
       </c>
       <c r="J16">
-        <v>0.04717076453117141</v>
+        <v>0.2924731859264094</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.02376987980892</v>
+        <v>4.552757666666667</v>
       </c>
       <c r="N16">
-        <v>4.02376987980892</v>
+        <v>13.658273</v>
       </c>
       <c r="O16">
-        <v>0.1998115291635227</v>
+        <v>0.2137267410357641</v>
       </c>
       <c r="P16">
-        <v>0.1998115291635227</v>
+        <v>0.2137267410357641</v>
       </c>
       <c r="Q16">
-        <v>27.21046694793618</v>
+        <v>191.7460255347588</v>
       </c>
       <c r="R16">
-        <v>27.21046694793618</v>
+        <v>1725.714229812829</v>
       </c>
       <c r="S16">
-        <v>0.009425262592785817</v>
+        <v>0.06250934086839859</v>
       </c>
       <c r="T16">
-        <v>0.009425262592785817</v>
+        <v>0.06250934086839857</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>40.18211366666667</v>
+      </c>
+      <c r="H17">
+        <v>120.546341</v>
+      </c>
+      <c r="I17">
+        <v>0.2790403431922163</v>
+      </c>
+      <c r="J17">
+        <v>0.2790403431922163</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>15.66014366666667</v>
+      </c>
+      <c r="N17">
+        <v>46.980431</v>
+      </c>
+      <c r="O17">
+        <v>0.735156956526318</v>
+      </c>
+      <c r="P17">
+        <v>0.7351569565263179</v>
+      </c>
+      <c r="Q17">
+        <v>629.2576728503302</v>
+      </c>
+      <c r="R17">
+        <v>5663.319055652972</v>
+      </c>
+      <c r="S17">
+        <v>0.205138449449249</v>
+      </c>
+      <c r="T17">
+        <v>0.2051384494492489</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>40.18211366666667</v>
+      </c>
+      <c r="H18">
+        <v>120.546341</v>
+      </c>
+      <c r="I18">
+        <v>0.2790403431922163</v>
+      </c>
+      <c r="J18">
+        <v>0.2790403431922163</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.9918089999999999</v>
+      </c>
+      <c r="N18">
+        <v>2.975427</v>
+      </c>
+      <c r="O18">
+        <v>0.04655993593771484</v>
+      </c>
+      <c r="P18">
+        <v>0.04655993593771483</v>
+      </c>
+      <c r="Q18">
+        <v>39.852981973623</v>
+      </c>
+      <c r="R18">
+        <v>358.676837762607</v>
+      </c>
+      <c r="S18">
+        <v>0.01299210050306755</v>
+      </c>
+      <c r="T18">
+        <v>0.01299210050306755</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>40.18211366666667</v>
+      </c>
+      <c r="H19">
+        <v>120.546341</v>
+      </c>
+      <c r="I19">
+        <v>0.2790403431922163</v>
+      </c>
+      <c r="J19">
+        <v>0.2790403431922163</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.08833166666666666</v>
+      </c>
+      <c r="N19">
+        <v>0.264995</v>
+      </c>
+      <c r="O19">
+        <v>0.004146682215297079</v>
+      </c>
+      <c r="P19">
+        <v>0.004146682215297079</v>
+      </c>
+      <c r="Q19">
+        <v>3.549353070366111</v>
+      </c>
+      <c r="R19">
+        <v>31.944177633295</v>
+      </c>
+      <c r="S19">
+        <v>0.001157091628465557</v>
+      </c>
+      <c r="T19">
+        <v>0.001157091628465557</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>40.18211366666667</v>
+      </c>
+      <c r="H20">
+        <v>120.546341</v>
+      </c>
+      <c r="I20">
+        <v>0.2790403431922163</v>
+      </c>
+      <c r="J20">
+        <v>0.2790403431922163</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.008727</v>
+      </c>
+      <c r="N20">
+        <v>0.026181</v>
+      </c>
+      <c r="O20">
+        <v>0.0004096842849061034</v>
+      </c>
+      <c r="P20">
+        <v>0.0004096842849061033</v>
+      </c>
+      <c r="Q20">
+        <v>0.350669305969</v>
+      </c>
+      <c r="R20">
+        <v>3.156023753721</v>
+      </c>
+      <c r="S20">
+        <v>0.0001143184434606568</v>
+      </c>
+      <c r="T20">
+        <v>0.0001143184434606568</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>40.18211366666667</v>
+      </c>
+      <c r="H21">
+        <v>120.546341</v>
+      </c>
+      <c r="I21">
+        <v>0.2790403431922163</v>
+      </c>
+      <c r="J21">
+        <v>0.2790403431922163</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.552757666666667</v>
+      </c>
+      <c r="N21">
+        <v>13.658273</v>
+      </c>
+      <c r="O21">
+        <v>0.2137267410357641</v>
+      </c>
+      <c r="P21">
+        <v>0.2137267410357641</v>
+      </c>
+      <c r="Q21">
+        <v>182.9394260587881</v>
+      </c>
+      <c r="R21">
+        <v>1646.454834529093</v>
+      </c>
+      <c r="S21">
+        <v>0.05963838316797354</v>
+      </c>
+      <c r="T21">
+        <v>0.05963838316797353</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>7.002139333333333</v>
+      </c>
+      <c r="H22">
+        <v>21.006418</v>
+      </c>
+      <c r="I22">
+        <v>0.04862559941126002</v>
+      </c>
+      <c r="J22">
+        <v>0.04862559941126002</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>15.66014366666667</v>
+      </c>
+      <c r="N22">
+        <v>46.980431</v>
+      </c>
+      <c r="O22">
+        <v>0.735156956526318</v>
+      </c>
+      <c r="P22">
+        <v>0.7351569565263179</v>
+      </c>
+      <c r="Q22">
+        <v>109.6545079340176</v>
+      </c>
+      <c r="R22">
+        <v>986.8905714061581</v>
+      </c>
+      <c r="S22">
+        <v>0.03574744767244983</v>
+      </c>
+      <c r="T22">
+        <v>0.03574744767244983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>7.002139333333333</v>
+      </c>
+      <c r="H23">
+        <v>21.006418</v>
+      </c>
+      <c r="I23">
+        <v>0.04862559941126002</v>
+      </c>
+      <c r="J23">
+        <v>0.04862559941126002</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.9918089999999999</v>
+      </c>
+      <c r="N23">
+        <v>2.975427</v>
+      </c>
+      <c r="O23">
+        <v>0.04655993593771484</v>
+      </c>
+      <c r="P23">
+        <v>0.04655993593771483</v>
+      </c>
+      <c r="Q23">
+        <v>6.944784810053999</v>
+      </c>
+      <c r="R23">
+        <v>62.503063290486</v>
+      </c>
+      <c r="S23">
+        <v>0.002264004793521251</v>
+      </c>
+      <c r="T23">
+        <v>0.00226400479352125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>7.002139333333333</v>
+      </c>
+      <c r="H24">
+        <v>21.006418</v>
+      </c>
+      <c r="I24">
+        <v>0.04862559941126002</v>
+      </c>
+      <c r="J24">
+        <v>0.04862559941126002</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.08833166666666666</v>
+      </c>
+      <c r="N24">
+        <v>0.264995</v>
+      </c>
+      <c r="O24">
+        <v>0.004146682215297079</v>
+      </c>
+      <c r="P24">
+        <v>0.004146682215297079</v>
+      </c>
+      <c r="Q24">
+        <v>0.6185106375455555</v>
+      </c>
+      <c r="R24">
+        <v>5.566595737909999</v>
+      </c>
+      <c r="S24">
+        <v>0.000201634908286832</v>
+      </c>
+      <c r="T24">
+        <v>0.000201634908286832</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>7.002139333333333</v>
+      </c>
+      <c r="H25">
+        <v>21.006418</v>
+      </c>
+      <c r="I25">
+        <v>0.04862559941126002</v>
+      </c>
+      <c r="J25">
+        <v>0.04862559941126002</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.008727</v>
+      </c>
+      <c r="N25">
+        <v>0.026181</v>
+      </c>
+      <c r="O25">
+        <v>0.0004096842849061034</v>
+      </c>
+      <c r="P25">
+        <v>0.0004096842849061033</v>
+      </c>
+      <c r="Q25">
+        <v>0.061107669962</v>
+      </c>
+      <c r="R25">
+        <v>0.549969029658</v>
+      </c>
+      <c r="S25">
+        <v>1.99211439229327E-05</v>
+      </c>
+      <c r="T25">
+        <v>1.99211439229327E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>7.002139333333333</v>
+      </c>
+      <c r="H26">
+        <v>21.006418</v>
+      </c>
+      <c r="I26">
+        <v>0.04862559941126002</v>
+      </c>
+      <c r="J26">
+        <v>0.04862559941126002</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.552757666666667</v>
+      </c>
+      <c r="N26">
+        <v>13.658273</v>
+      </c>
+      <c r="O26">
+        <v>0.2137267410357641</v>
+      </c>
+      <c r="P26">
+        <v>0.2137267410357641</v>
+      </c>
+      <c r="Q26">
+        <v>31.87904353290156</v>
+      </c>
+      <c r="R26">
+        <v>286.911391796114</v>
+      </c>
+      <c r="S26">
+        <v>0.01039259089307917</v>
+      </c>
+      <c r="T26">
+        <v>0.01039259089307917</v>
       </c>
     </row>
   </sheetData>
